--- a/xls/dbConnection.xlsx
+++ b/xls/dbConnection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bot1\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bot1\xls\live\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
-    <t>Chrisg102570</t>
-  </si>
-  <si>
-    <t>IND-MHPDW100512</t>
-  </si>
-  <si>
     <t>helpdesk2@gmail.com</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>M8$tek!123</t>
-  </si>
-  <si>
     <t>subhro_tek@outlook.com</t>
   </si>
   <si>
@@ -87,6 +78,15 @@
   </si>
   <si>
     <t>Lithuania</t>
+  </si>
+  <si>
+    <t>ipfdb.database.windows.net</t>
+  </si>
+  <si>
+    <t>ipfadmin</t>
+  </si>
+  <si>
+    <t>ifp@admin1</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H8"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,139 +438,139 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,8 +583,14 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId6"/>
+    <hyperlink ref="G4" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="G7" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/xls/dbConnection.xlsx
+++ b/xls/dbConnection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bot1\xls\live\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bot1\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>helpdesk2@gmail.com</t>
   </si>
@@ -83,10 +83,13 @@
     <t>ipfdb.database.windows.net</t>
   </si>
   <si>
-    <t>ipfadmin</t>
-  </si>
-  <si>
-    <t>ifp@admin1</t>
+    <t>ipfdb.database.windows.net,1433</t>
+  </si>
+  <si>
+    <t>ipfadmin@ipfdb</t>
+  </si>
+  <si>
+    <t>ipf@admin1</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,16 +473,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -498,11 +501,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -515,11 +518,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -532,11 +535,11 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,11 +552,11 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,11 +569,11 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,14 +586,16 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="C2" r:id="rId4"/>
-    <hyperlink ref="G2" r:id="rId5"/>
-    <hyperlink ref="G3" r:id="rId6"/>
-    <hyperlink ref="G4" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="G7" r:id="rId10"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="G6" r:id="rId8"/>
+    <hyperlink ref="G7" r:id="rId9"/>
+    <hyperlink ref="F2" r:id="rId10"/>
+    <hyperlink ref="F3:F7" r:id="rId11" display="ipfadmin@ipfdb"/>
+    <hyperlink ref="G2" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/xls/dbConnection.xlsx
+++ b/xls/dbConnection.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>helpdesk2@gmail.com</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>ipfdb.database.windows.net</t>
-  </si>
-  <si>
-    <t>ipfdb.database.windows.net,1433</t>
   </si>
   <si>
     <t>ipfadmin@ipfdb</t>
@@ -428,7 +425,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,10 +499,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,10 +516,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -536,10 +533,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,10 +550,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,10 +567,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
